--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="соединения" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Arduino pin</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>menu</t>
-  </si>
-  <si>
-    <t>enter</t>
   </si>
   <si>
     <t>cancel</t>
@@ -397,13 +394,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,10 +727,10 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -772,7 +769,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -786,7 +783,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -800,7 +797,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -857,7 +854,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -877,7 +874,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -888,10 +885,10 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,10 +899,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -919,7 +916,7 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,10 +927,10 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,10 +944,10 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,7 +961,7 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -978,7 +975,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -992,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,46 +1023,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,18 +1073,18 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1144,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1172,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1185,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1196,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1209,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1220,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1235,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1246,10 +1243,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1259,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1270,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1283,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1291,28 +1288,28 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="B20" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1352,10 +1349,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1364,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1373,20 +1370,20 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,7 +1405,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1418,10 +1415,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1430,7 +1427,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1439,20 +1436,20 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,16 +1457,11 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="E1:E12"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
@@ -1484,6 +1476,11 @@
     <mergeCell ref="D7:D12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="соединения" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>Arduino pin</t>
   </si>
   <si>
-    <t> Device pin</t>
-  </si>
-  <si>
     <t> A0</t>
   </si>
   <si>
@@ -329,6 +326,30 @@
   </si>
   <si>
     <t>Match Byte</t>
+  </si>
+  <si>
+    <t> Rx Device pin</t>
+  </si>
+  <si>
+    <t>Tx Device pin</t>
+  </si>
+  <si>
+    <t>RF_OUT_INDICATOR</t>
+  </si>
+  <si>
+    <t>PPM_IN</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>Green_LED</t>
+  </si>
+  <si>
+    <t>Red_LED</t>
   </si>
 </sst>
 </file>
@@ -385,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -400,6 +421,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,283 +740,330 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="E5" t="s">
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1012,79 +1086,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1141,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1169,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1182,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1193,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1206,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1217,13 +1291,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1232,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1243,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1256,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1267,10 +1341,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1280,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1288,12 +1362,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1375,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,7 +1383,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,13 +1399,13 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1349,10 +1423,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1361,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1371,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
@@ -1381,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
@@ -1391,13 +1465,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1415,10 +1489,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1427,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1437,7 +1511,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
@@ -1447,7 +1521,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
@@ -1457,11 +1531,16 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="E1:E12"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
@@ -1476,11 +1555,6 @@
     <mergeCell ref="D7:D12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
